--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C90D8D-E2B4-47AF-90F2-55BD74E7674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D51BCE-06B1-4263-A438-A220542B2AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Logboek Olivier De Neef</t>
+  </si>
+  <si>
+    <t>0,5uur</t>
+  </si>
+  <si>
+    <t>Exceptions classes toevoegen (BestuurderException,  VoertuigException en TankkaartException)</t>
+  </si>
+  <si>
+    <t>Implentatie van Bestuurder Class</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,7 +290,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -595,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:G8"/>
+  <dimension ref="D2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,12 +632,12 @@
   <sheetData>
     <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="4:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="10" t="s">
@@ -657,7 +678,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3">
@@ -671,16 +692,44 @@
       </c>
     </row>
     <row r="8" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>44469</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.5</v>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="4:7" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44470</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44470</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D51BCE-06B1-4263-A438-A220542B2AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5D48F-0731-4E54-89DB-3928C8F9AA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -281,6 +281,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,18 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +619,7 @@
   <dimension ref="D2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,12 +632,12 @@
   <sheetData>
     <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="4:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="10" t="s">
@@ -703,31 +703,31 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="15" t="s">
+    <row r="9" spans="4:7" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>44470</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="4:7" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="15" t="s">
+    <row r="10" spans="4:7" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>44470</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5D48F-0731-4E54-89DB-3928C8F9AA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B7D43-4079-4C6A-918C-3BB128FAB736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -42,27 +42,12 @@
     <t xml:space="preserve">Datum </t>
   </si>
   <si>
-    <t xml:space="preserve">Tijd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschatte tijd </t>
-  </si>
-  <si>
-    <t>3uur</t>
-  </si>
-  <si>
-    <t>1,5uur</t>
-  </si>
-  <si>
     <t>Github opzetten en uitleg gegeven aan medestudenten</t>
   </si>
   <si>
     <t>Intro van de opdacht + rol verdeling</t>
   </si>
   <si>
-    <t>2uur</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UML klassen diagram ontwerpen voor domain laag</t>
   </si>
   <si>
@@ -72,13 +57,49 @@
     <t>Logboek Olivier De Neef</t>
   </si>
   <si>
-    <t>0,5uur</t>
-  </si>
-  <si>
     <t>Exceptions classes toevoegen (BestuurderException,  VoertuigException en TankkaartException)</t>
   </si>
   <si>
     <t>Implentatie van Bestuurder Class</t>
+  </si>
+  <si>
+    <t>Github mappen en Taakverdeling file opzetten</t>
+  </si>
+  <si>
+    <t>Totaal aant uren:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Geschatte tijd  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in uur)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tijd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in uur)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tests implementeren van bestuurder</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +150,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,36 +209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -246,13 +243,59 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,15 +311,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,14 +327,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,119 +668,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:G10"/>
+  <dimension ref="D2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="56.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="16" t="s">
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="4:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9" t="s">
+    </row>
+    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="6">
         <v>44469</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>44469</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
+      <c r="F6" s="4">
+        <v>1.5</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="11" t="s">
-        <v>9</v>
+    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="3">
         <v>44469</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
-        <v>10</v>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>44469</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
+      <c r="F8" s="4">
+        <v>0.5</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
+    <row r="9" spans="4:12" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44470</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44470</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44470</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13">
-        <v>44470</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13">
-        <v>44470</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16">
+        <f>SUM(F5:F11)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="16">
+        <f>SUM(G5:G12)</f>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B7D43-4079-4C6A-918C-3BB128FAB736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F5EDF-E023-4077-810B-2A1C829544EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     </r>
   </si>
   <si>
-    <t>Tests implementeren van bestuurder</t>
+    <t>Tests implementeren van bestuurder + opzoeken Xunit</t>
   </si>
 </sst>
 </file>
@@ -327,32 +327,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="D2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,24 +684,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="s">
@@ -800,21 +800,25 @@
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="3">
+        <v>44470</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
       <c r="G12" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="16">
-        <f>SUM(F5:F11)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="F14" s="13">
+        <f>SUM(F5:F12)</f>
+        <v>10.5</v>
+      </c>
+      <c r="G14" s="13">
         <f>SUM(G5:G12)</f>
         <v>13.5</v>
       </c>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F5EDF-E023-4077-810B-2A1C829544EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EF7DE-3107-4377-8CCF-234C1C79F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -269,25 +269,116 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -295,28 +386,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,21 +412,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +429,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L14"/>
+  <dimension ref="D2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,148 +812,172 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>44469</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="18">
         <v>1.5</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>44469</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>44469</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.5</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="4:12" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="9" t="s">
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>44470</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>0.5</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="9" t="s">
+    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>44470</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>1.5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="28">
         <v>2</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>44470</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="8" t="s">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="16">
         <v>44470</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="30">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="13" t="s">
+    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="29"/>
+      <c r="E13" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="31"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="13">
-        <f>SUM(F5:F12)</f>
-        <v>10.5</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="E15" s="34"/>
+      <c r="F15" s="21">
+        <f>SUM(F5:F13)</f>
+        <v>14.5</v>
+      </c>
+      <c r="G15" s="20">
         <f>SUM(G5:G12)</f>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EF7DE-3107-4377-8CCF-234C1C79F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8D772-A347-4F3E-9313-CEA19DB18A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Tests implementeren van bestuurder + opzoeken Xunit</t>
+  </si>
+  <si>
+    <t>Vergadering met Luca</t>
+  </si>
+  <si>
+    <t>Vergadering met Luca en Arnout</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,18 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +437,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,9 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,10 +464,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L15"/>
+  <dimension ref="D2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,12 +827,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
@@ -826,27 +841,27 @@
       <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>44469</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>1.5</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2">
@@ -855,12 +870,12 @@
       <c r="F6" s="3">
         <v>1.5</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2">
@@ -869,12 +884,12 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
@@ -883,12 +898,12 @@
       <c r="F8" s="3">
         <v>0.5</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6">
@@ -897,12 +912,12 @@
       <c r="F9" s="7">
         <v>0.5</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6">
@@ -911,13 +926,13 @@
       <c r="F10" s="7">
         <v>1.5</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
@@ -926,48 +941,78 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>44470</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="2">
         <v>44471</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="31"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="33" t="s">
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="25"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="21">
-        <f>SUM(F5:F13)</f>
-        <v>14.5</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="E18" s="35"/>
+      <c r="F18" s="16">
+        <f>SUM(F5:F15)</f>
+        <v>17.5</v>
+      </c>
+      <c r="G18" s="27">
         <f>SUM(G5:G12)</f>
         <v>15.5</v>
       </c>
@@ -977,7 +1022,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8D772-A347-4F3E-9313-CEA19DB18A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532A9C1-C480-4BC7-9173-9648EF9D47B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Vergadering met Luca en Arnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests implementeren van bestuurder </t>
   </si>
 </sst>
 </file>
@@ -467,6 +470,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,12 +498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,30 +814,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L18"/>
+  <dimension ref="D2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="56.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="28" t="s">
+    <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
@@ -848,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
@@ -860,7 +863,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
@@ -874,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
@@ -888,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
@@ -902,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
@@ -916,7 +919,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -931,7 +934,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
@@ -943,8 +946,8 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="32" t="s">
+    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="12">
@@ -953,21 +956,21 @@
       <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="32"/>
+    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
       <c r="E13" s="2">
         <v>44471</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="23" t="s">
         <v>14</v>
       </c>
@@ -979,7 +982,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
@@ -991,28 +994,40 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="11"/>
+    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="29">
+        <v>44474</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.5</v>
+      </c>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="25"/>
-      <c r="E17" s="11"/>
+    <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="34" t="s">
+    <row r="18" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="25"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="16">
-        <f>SUM(F5:F15)</f>
-        <v>17.5</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="E19" s="37"/>
+      <c r="F19" s="16">
+        <f>SUM(F5:F16)</f>
+        <v>18</v>
+      </c>
+      <c r="G19" s="27">
         <f>SUM(G5:G12)</f>
         <v>15.5</v>
       </c>
@@ -1022,7 +1037,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532A9C1-C480-4BC7-9173-9648EF9D47B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C401F7-0F60-402A-80D4-EF0B70E06AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -109,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tests implementeren van bestuurder </t>
+  </si>
+  <si>
+    <t>Adres implementeren + tests</t>
+  </si>
+  <si>
+    <t>Aanpassen van bestuurder klasse en tests</t>
   </si>
 </sst>
 </file>
@@ -395,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,22 +822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L19"/>
+  <dimension ref="D2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="56.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
@@ -837,7 +845,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
@@ -851,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
@@ -863,7 +871,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
@@ -877,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
@@ -891,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
@@ -905,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
@@ -919,7 +927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -934,7 +942,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
@@ -946,7 +954,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="34" t="s">
         <v>13</v>
       </c>
@@ -960,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="34"/>
       <c r="E13" s="2">
         <v>44471</v>
@@ -970,7 +978,7 @@
       </c>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="23" t="s">
         <v>14</v>
       </c>
@@ -982,7 +990,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
@@ -994,50 +1002,87 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="28" t="s">
+    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="2">
         <v>44474</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="3">
         <v>0.5</v>
       </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="25"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="36" t="s">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44475</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="39">
+        <v>44477</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="25"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="16">
-        <f>SUM(F5:F16)</f>
-        <v>18</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="E22" s="37"/>
+      <c r="F22" s="16">
+        <f>SUM(F5:F19)</f>
+        <v>23</v>
+      </c>
+      <c r="G22" s="27">
         <f>SUM(G5:G12)</f>
         <v>15.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C401F7-0F60-402A-80D4-EF0B70E06AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3087BC-AB91-433E-BAFD-0E25D4F02152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -111,6 +115,9 @@
   </si>
   <si>
     <t>Aanpassen van bestuurder klasse en tests</t>
+  </si>
+  <si>
+    <t>Aanpassen van classe diagram</t>
   </si>
 </sst>
 </file>
@@ -397,12 +404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,23 +463,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,7 +823,7 @@
   <dimension ref="D2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,242 +836,248 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>44469</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>1.5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="27">
         <v>44469</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1.5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="27">
         <v>44469</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="27">
         <v>44469</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="21" t="s">
+    <row r="9" spans="4:12" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>44470</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="21" t="s">
+    <row r="10" spans="4:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>44470</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>1.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>2</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="27">
         <v>44470</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>44470</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="34"/>
-      <c r="E13" s="2">
+      <c r="D13" s="32"/>
+      <c r="E13" s="27">
         <v>44471</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="27">
         <v>44472</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="27">
         <v>44472</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="27">
         <v>44474</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.5</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="27">
         <v>44475</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="36">
         <v>44477</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="3">
+      <c r="E19" s="36"/>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="27">
+        <v>44479</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="25"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="16">
-        <f>SUM(F5:F19)</f>
-        <v>23</v>
-      </c>
-      <c r="G22" s="27">
-        <f>SUM(G5:G12)</f>
-        <v>15.5</v>
+      <c r="E22" s="35"/>
+      <c r="F22" s="15">
+        <f>SUM(F5:F21)</f>
+        <v>25</v>
+      </c>
+      <c r="G22" s="26">
+        <f>SUM(G5:G21)</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3087BC-AB91-433E-BAFD-0E25D4F02152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA85C1-14BA-4ED3-A1F9-8366513698A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Aanpassen van classe diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strutuur update en unit testen schrijven </t>
+  </si>
+  <si>
+    <t>Code review</t>
   </si>
 </sst>
 </file>
@@ -820,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L22"/>
+  <dimension ref="D2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,24 +1066,52 @@
       </c>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="22"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="34" t="s">
+    <row r="21" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27">
+        <v>44482</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="27">
+        <v>44482</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="22"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="15">
-        <f>SUM(F5:F21)</f>
-        <v>25</v>
-      </c>
-      <c r="G22" s="26">
-        <f>SUM(G5:G21)</f>
-        <v>19.5</v>
+      <c r="E24" s="35"/>
+      <c r="F24" s="15">
+        <f>SUM(F5:F23)</f>
+        <v>30</v>
+      </c>
+      <c r="G24" s="26">
+        <f>SUM(G5:G23)</f>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1119,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA85C1-14BA-4ED3-A1F9-8366513698A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BEE18-90C0-4A91-9DBA-59B8C097273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Exceptions classes toevoegen (BestuurderException,  VoertuigException en TankkaartException)</t>
-  </si>
-  <si>
-    <t>Implentatie van Bestuurder Class</t>
   </si>
   <si>
     <t>Github mappen en Taakverdeling file opzetten</t>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Code review</t>
+  </si>
+  <si>
+    <t>Feedback docent</t>
+  </si>
+  <si>
+    <t>Vergadering teamgenoten</t>
+  </si>
+  <si>
+    <t>Implementatie van Brandstoftype</t>
+  </si>
+  <si>
+    <t>Implementatie van Bestuurder Class</t>
+  </si>
+  <si>
+    <t>Implementatie van BrandstoftypeManager</t>
   </si>
 </sst>
 </file>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L24"/>
+  <dimension ref="D2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,7 +945,7 @@
     </row>
     <row r="10" spans="4:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>44470</v>
@@ -948,7 +960,7 @@
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="27">
         <v>44470</v>
@@ -960,7 +972,7 @@
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="11">
         <v>44470</v>
@@ -984,7 +996,7 @@
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="27">
         <v>44472</v>
@@ -996,7 +1008,7 @@
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="27">
         <v>44472</v>
@@ -1008,7 +1020,7 @@
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="27">
         <v>44474</v>
@@ -1020,7 +1032,7 @@
     </row>
     <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="27">
         <v>44475</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="18" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="36">
         <v>44477</v>
@@ -1046,7 +1058,7 @@
     </row>
     <row r="19" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="2">
@@ -1056,7 +1068,7 @@
     </row>
     <row r="20" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="27">
         <v>44479</v>
@@ -1068,7 +1080,7 @@
     </row>
     <row r="21" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="27">
         <v>44482</v>
@@ -1082,7 +1094,7 @@
     </row>
     <row r="22" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="27">
         <v>44482</v>
@@ -1094,24 +1106,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="22"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="15">
-        <f>SUM(F5:F23)</f>
-        <v>30</v>
-      </c>
-      <c r="G24" s="26">
-        <f>SUM(G5:G23)</f>
-        <v>23.5</v>
+    <row r="23" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="27">
+        <v>44483</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="27">
+        <v>44483</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="27">
+        <v>44483</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27">
+        <v>44484</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="22"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="15">
+        <f>SUM(F5:F27)</f>
+        <v>37</v>
+      </c>
+      <c r="G28" s="26">
+        <f>SUM(G5:G27)</f>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1183,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BEE18-90C0-4A91-9DBA-59B8C097273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51430E22-9BE0-47E8-A71B-5E52BE25BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L28"/>
+  <dimension ref="D2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,24 +1158,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="22"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="23"/>
+    <row r="27" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="27">
+        <v>44489</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="15">
-        <f>SUM(F5:F27)</f>
-        <v>37</v>
-      </c>
-      <c r="G28" s="26">
-        <f>SUM(G5:G27)</f>
-        <v>27.5</v>
+      <c r="E29" s="35"/>
+      <c r="F29" s="15">
+        <f>SUM(F5:F28)</f>
+        <v>39</v>
+      </c>
+      <c r="G29" s="26">
+        <f>SUM(G5:G28)</f>
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1197,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51430E22-9BE0-47E8-A71B-5E52BE25BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED15EA9-C626-4EE7-BF01-5F82CDDFE2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Implementatie van BrandstoftypeManager</t>
+  </si>
+  <si>
+    <t>UI ontwerp</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,213 +219,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,12 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,83 +240,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L29"/>
+  <dimension ref="D3:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,353 +609,352 @@
     <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="28" t="s">
+    <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <v>44469</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="2">
         <v>1.5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="27">
-        <v>44469</v>
-      </c>
+      <c r="D6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="27">
-        <v>44469</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="27">
-        <v>44469</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="20" t="s">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>44470</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.5</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="20" t="s">
+    <row r="10" spans="4:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>44470</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>1.5</v>
       </c>
-      <c r="G10" s="21">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="27">
-        <v>44470</v>
-      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11">
-        <v>44470</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="32"/>
-      <c r="E13" s="27">
+      <c r="D13" s="17"/>
+      <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="8">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="27">
-        <v>44472</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="7">
         <v>44474</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="7">
         <v>44475</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="8">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="7">
         <v>44479</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="8">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="27">
-        <v>44482</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="8">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="27">
-        <v>44483</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="27">
-        <v>44483</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="7">
         <v>44484</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="8">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="22"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="34" t="s">
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="14"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="15">
-        <f>SUM(F5:F28)</f>
-        <v>39</v>
-      </c>
-      <c r="G29" s="26">
-        <f>SUM(G5:G28)</f>
-        <v>29.5</v>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20">
+        <f>SUM(F5:F29)</f>
+        <v>40</v>
+      </c>
+      <c r="G30" s="20">
+        <f>SUM(G5:G29)</f>
+        <v>41.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED15EA9-C626-4EE7-BF01-5F82CDDFE2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91A9A8-9E94-4223-AF98-353EB9203642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -138,7 +138,13 @@
     <t>Implementatie van BrandstoftypeManager</t>
   </si>
   <si>
-    <t>UI ontwerp</t>
+    <t>Test review en alle test aangepast</t>
+  </si>
+  <si>
+    <t>Feedback docent + vergadering teamgenoten</t>
+  </si>
+  <si>
+    <t>UI ontwerpen</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,11 +225,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,20 +278,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,7 +298,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L30"/>
+  <dimension ref="D3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,32 +663,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="24">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -644,10 +697,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -656,10 +709,10 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -668,10 +721,10 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -680,7 +733,7 @@
       </c>
     </row>
     <row r="9" spans="4:12" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -694,10 +747,10 @@
       </c>
     </row>
     <row r="10" spans="4:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="25">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -709,42 +762,42 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="24">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -753,17 +806,17 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="7">
@@ -775,7 +828,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="7">
@@ -787,10 +840,10 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="24">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -801,17 +854,17 @@
       </c>
     </row>
     <row r="19" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="7">
@@ -823,10 +876,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="24">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -837,10 +890,10 @@
       </c>
     </row>
     <row r="22" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -849,10 +902,10 @@
       </c>
     </row>
     <row r="23" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="24">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -861,20 +914,20 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -883,7 +936,7 @@
       </c>
     </row>
     <row r="26" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="7">
@@ -897,10 +950,10 @@
       </c>
     </row>
     <row r="27" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="24">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -911,10 +964,10 @@
       </c>
     </row>
     <row r="28" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -922,32 +975,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="14"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="19" t="s">
+    <row r="29" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="26">
+        <v>44490</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="14">
+        <v>4</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="18">
+        <v>44494</v>
+      </c>
+      <c r="F31" s="17">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20">
-        <f>SUM(F5:F29)</f>
-        <v>40</v>
-      </c>
-      <c r="G30" s="20">
-        <f>SUM(G5:G29)</f>
+      <c r="E33" s="23"/>
+      <c r="F33" s="15">
+        <f>SUM(F5:F32)</f>
+        <v>53</v>
+      </c>
+      <c r="G33" s="15">
+        <f>SUM(G5:G32)</f>
         <v>41.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -955,6 +1042,7 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91A9A8-9E94-4223-AF98-353EB9203642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB411C6-37FC-432C-B61E-56F44B82FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>UI ontwerpen</t>
+  </si>
+  <si>
+    <t>Erd ontwerpen</t>
+  </si>
+  <si>
+    <t>Classe diagram aanpassen</t>
+  </si>
+  <si>
+    <t>Implementeren WagenTypeRepo</t>
+  </si>
+  <si>
+    <t>Databank maken en scripts ontwikkelen</t>
   </si>
 </sst>
 </file>
@@ -202,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -251,11 +263,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +330,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,6 +370,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L33"/>
+  <dimension ref="D3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,12 +704,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -688,7 +729,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -700,7 +741,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -712,7 +753,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -724,7 +765,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -750,7 +791,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="30">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -765,39 +806,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="29">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -809,7 +850,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -843,7 +884,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="29">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -857,7 +898,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -879,7 +920,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="29">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -893,7 +934,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -905,7 +946,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -917,7 +958,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -927,7 +968,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -953,7 +994,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="29">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -967,7 +1008,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -979,7 +1020,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="31">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -991,7 +1032,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1009,32 +1050,102 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="23" t="s">
+    <row r="32" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="31">
+        <v>44497</v>
+      </c>
+      <c r="F32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="20">
+        <v>3</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="20">
+        <v>2</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="31">
+        <v>44499</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="23">
+        <v>44503</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="15">
-        <f>SUM(F5:F32)</f>
-        <v>53</v>
-      </c>
-      <c r="G33" s="15">
-        <f>SUM(G5:G32)</f>
-        <v>41.5</v>
+      <c r="E39" s="28"/>
+      <c r="F39" s="15">
+        <f>SUM(F5:F38)</f>
+        <v>63</v>
+      </c>
+      <c r="G39" s="15">
+        <f>SUM(G5:G38)</f>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1043,6 +1154,8 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB411C6-37FC-432C-B61E-56F44B82FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810F712-FAEA-406B-A9AF-4FF0FB69F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Databank maken en scripts ontwikkelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca helpen </t>
+  </si>
+  <si>
+    <t>BestuurderRepo schrijven van methodes (voor luca)</t>
+  </si>
+  <si>
+    <t>TankkaartRepo implementeren</t>
   </si>
 </sst>
 </file>
@@ -278,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +354,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,6 +392,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L39"/>
+  <dimension ref="D3:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,12 +734,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -729,7 +759,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="32">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -741,7 +771,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -753,7 +783,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -765,7 +795,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -791,7 +821,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="33">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -806,39 +836,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="26"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="32">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -850,7 +880,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -884,7 +914,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="32">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -898,7 +928,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -920,7 +950,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="32">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -934,7 +964,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -946,7 +976,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="32">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -958,7 +988,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -968,7 +998,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -994,7 +1024,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="32">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1008,7 +1038,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1020,7 +1050,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="34">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1032,7 +1062,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1054,7 +1084,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="34">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1066,7 +1096,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1076,7 +1106,7 @@
       <c r="D34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="32"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1088,7 +1118,7 @@
       <c r="D35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="34">
         <v>44499</v>
       </c>
       <c r="F35" s="22">
@@ -1100,7 +1130,7 @@
       <c r="D36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="32"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="22">
         <v>2</v>
       </c>
@@ -1120,32 +1150,92 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="28" t="s">
+    <row r="38" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44510</v>
+      </c>
+      <c r="F38" s="25">
+        <v>2</v>
+      </c>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="26">
+        <v>44510</v>
+      </c>
+      <c r="F39" s="25">
+        <v>3</v>
+      </c>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="26">
+        <v>44514</v>
+      </c>
+      <c r="F40" s="25">
+        <v>2</v>
+      </c>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="26">
+        <v>44515</v>
+      </c>
+      <c r="F41" s="25">
+        <v>2</v>
+      </c>
+      <c r="G41" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="40"/>
+      <c r="E42" s="26">
+        <v>44517</v>
+      </c>
+      <c r="F42" s="25">
+        <v>3</v>
+      </c>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="15">
-        <f>SUM(F5:F38)</f>
-        <v>63</v>
-      </c>
-      <c r="G39" s="15">
-        <f>SUM(G5:G38)</f>
-        <v>44.5</v>
+      <c r="E44" s="31"/>
+      <c r="F44" s="15">
+        <f>SUM(F5:F43)</f>
+        <v>75</v>
+      </c>
+      <c r="G44" s="15">
+        <f>SUM(G5:G43)</f>
+        <v>50.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1156,6 +1246,8 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810F712-FAEA-406B-A9AF-4FF0FB69F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1CE34-139E-4EC5-A9E1-E9EA6E41C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>TankkaartRepo implementeren</t>
+  </si>
+  <si>
+    <t>BestuurderRepo implementeren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoertuigRepo implemenenteren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback + bespreking team genoten </t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -354,27 +375,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,16 +408,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L44"/>
+  <dimension ref="D3:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,12 +761,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -759,7 +786,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -771,7 +798,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -783,7 +810,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -795,7 +822,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -821,7 +848,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="35">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -836,39 +863,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="34">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -880,7 +907,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -914,7 +941,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="34">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -928,7 +955,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -950,7 +977,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="34">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -964,7 +991,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -976,7 +1003,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="34">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -988,7 +1015,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -998,7 +1025,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1024,7 +1051,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="34">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1038,7 +1065,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1050,7 +1077,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="36">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1062,7 +1089,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1084,7 +1111,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="36">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1096,17 +1123,17 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="35"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1115,127 +1142,183 @@
       </c>
     </row>
     <row r="35" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="36">
         <v>44499</v>
       </c>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
-      <c r="G35" s="22"/>
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="22">
-        <v>2</v>
-      </c>
-      <c r="G36" s="22">
+      <c r="E36" s="37"/>
+      <c r="F36" s="21">
+        <v>2</v>
+      </c>
+      <c r="G36" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>44503</v>
       </c>
-      <c r="F37" s="22">
-        <v>1</v>
-      </c>
-      <c r="G37" s="22"/>
+      <c r="F37" s="21">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <v>44510</v>
       </c>
-      <c r="F38" s="25">
-        <v>2</v>
-      </c>
-      <c r="G38" s="25"/>
+      <c r="F38" s="23">
+        <v>2</v>
+      </c>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="24">
         <v>44510</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="23">
         <v>3</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="24">
         <v>44514</v>
       </c>
-      <c r="F40" s="25">
-        <v>2</v>
-      </c>
-      <c r="G40" s="25"/>
+      <c r="F40" s="23">
+        <v>2</v>
+      </c>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="24">
         <v>44515</v>
       </c>
-      <c r="F41" s="25">
-        <v>2</v>
-      </c>
-      <c r="G41" s="37">
+      <c r="F41" s="23">
+        <v>2</v>
+      </c>
+      <c r="G41" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="40"/>
-      <c r="E42" s="26">
+      <c r="D42" s="44"/>
+      <c r="E42" s="24">
         <v>44517</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="31" t="s">
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="40"/>
+      <c r="E43" s="27">
+        <v>44519</v>
+      </c>
+      <c r="F43" s="26">
+        <v>4</v>
+      </c>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="27">
+        <v>44525</v>
+      </c>
+      <c r="F44" s="26">
+        <v>3</v>
+      </c>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="27">
+        <v>44525</v>
+      </c>
+      <c r="F45" s="26">
+        <v>5</v>
+      </c>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="40"/>
+      <c r="E46" s="27">
+        <v>44526</v>
+      </c>
+      <c r="F46" s="26">
+        <v>2</v>
+      </c>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="27">
+        <v>44526</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="45"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="15">
-        <f>SUM(F5:F43)</f>
-        <v>75</v>
-      </c>
-      <c r="G44" s="15">
-        <f>SUM(G5:G43)</f>
+      <c r="E49" s="33"/>
+      <c r="F49" s="15">
+        <f>SUM(F5:F48)</f>
+        <v>89</v>
+      </c>
+      <c r="G49" s="15">
+        <f>SUM(G5:G48)</f>
         <v>50.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1246,7 +1329,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D41:D42"/>
     <mergeCell ref="G41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1CE34-139E-4EC5-A9E1-E9EA6E41C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1343B-875A-4BF6-97CE-4933D2A49504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t xml:space="preserve">Feedback + bespreking team genoten </t>
+  </si>
+  <si>
+    <t>Code behinde MainWindow implementeren</t>
+  </si>
+  <si>
+    <t>Opzoeken informatie over datagrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call met Luca </t>
+  </si>
+  <si>
+    <t>Aanpassingen fortend mainwindow</t>
+  </si>
+  <si>
+    <t>Groeps call voor project te overlopen</t>
   </si>
 </sst>
 </file>
@@ -296,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +393,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,29 +450,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L49"/>
+  <dimension ref="D3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,12 +785,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -786,7 +810,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="43">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -798,7 +822,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -810,7 +834,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -822,7 +846,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -848,7 +872,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="44">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -863,39 +887,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="31"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="43">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -907,7 +931,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -941,7 +965,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="43">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -955,7 +979,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -977,7 +1001,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="43">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -991,7 +1015,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1003,7 +1027,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="43">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -1015,7 +1039,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -1025,7 +1049,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1051,7 +1075,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="43">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1065,7 +1089,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1077,7 +1101,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="45">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1089,7 +1113,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1111,7 +1135,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="45">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1123,7 +1147,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1133,7 +1157,7 @@
       <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="37"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1145,7 +1169,7 @@
       <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="45">
         <v>44499</v>
       </c>
       <c r="F35" s="21">
@@ -1157,7 +1181,7 @@
       <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="21">
         <v>2</v>
       </c>
@@ -1214,7 +1238,7 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="35" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="24">
@@ -1223,22 +1247,22 @@
       <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="44"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="24">
         <v>44517</v>
       </c>
       <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="42"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="40"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="27">
         <v>44519</v>
       </c>
@@ -1248,7 +1272,7 @@
       <c r="G43" s="28"/>
     </row>
     <row r="44" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="27">
@@ -1260,7 +1284,7 @@
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="35" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="27">
@@ -1269,67 +1293,146 @@
       <c r="F45" s="26">
         <v>5</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="48">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="40"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="27">
         <v>44526</v>
       </c>
       <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="31" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="27">
         <v>44526</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="45"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="33" t="s">
+      <c r="F47" s="26">
+        <v>2</v>
+      </c>
+      <c r="G47" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="30">
+        <v>44527</v>
+      </c>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="30">
+        <v>44528</v>
+      </c>
+      <c r="F49" s="29">
+        <v>2</v>
+      </c>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="30">
+        <v>44529</v>
+      </c>
+      <c r="F50" s="29">
+        <v>1</v>
+      </c>
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="30">
+        <v>44531</v>
+      </c>
+      <c r="F51" s="29">
+        <v>1</v>
+      </c>
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="30">
+        <v>44502</v>
+      </c>
+      <c r="F52" s="29">
+        <v>1</v>
+      </c>
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="30">
+        <v>44502</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="33"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="15">
-        <f>SUM(F5:F48)</f>
-        <v>89</v>
-      </c>
-      <c r="G49" s="15">
-        <f>SUM(G5:G48)</f>
-        <v>50.5</v>
+      <c r="E55" s="42"/>
+      <c r="F55" s="15">
+        <f>SUM(F5:F54)</f>
+        <v>98</v>
+      </c>
+      <c r="G55" s="15">
+        <f>SUM(G5:G54)</f>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E36"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G45:G46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1343B-875A-4BF6-97CE-4933D2A49504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87126F04-6F18-49D8-9B8F-56491B2F837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Groeps call voor project te overlopen</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +414,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -432,23 +462,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L55"/>
+  <dimension ref="D3:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,12 +800,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -810,7 +825,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -822,7 +837,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -834,7 +849,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -846,7 +861,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -872,7 +887,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="51">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -887,39 +902,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="40"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="40">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -931,7 +946,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -965,7 +980,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="40">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -979,7 +994,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -1001,7 +1016,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="40">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -1015,7 +1030,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1027,7 +1042,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="40">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -1039,7 +1054,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -1049,7 +1064,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1075,7 +1090,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="40">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1089,7 +1104,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1101,7 +1116,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1113,7 +1128,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1135,7 +1150,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="41">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1147,7 +1162,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="47"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1157,7 +1172,7 @@
       <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1169,7 +1184,7 @@
       <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="41">
         <v>44499</v>
       </c>
       <c r="F35" s="21">
@@ -1181,7 +1196,7 @@
       <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="21">
         <v>2</v>
       </c>
@@ -1238,7 +1253,7 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="44" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="24">
@@ -1247,22 +1262,22 @@
       <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="52">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="36"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="24">
         <v>44517</v>
       </c>
       <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="37"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="27">
         <v>44519</v>
       </c>
@@ -1284,7 +1299,7 @@
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="27">
@@ -1293,19 +1308,19 @@
       <c r="F45" s="26">
         <v>5</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="37"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="27">
         <v>44526</v>
       </c>
       <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="49"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="31" t="s">
@@ -1376,7 +1391,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="30">
-        <v>44502</v>
+        <v>44532</v>
       </c>
       <c r="F52" s="29">
         <v>1</v>
@@ -1388,34 +1403,92 @@
         <v>21</v>
       </c>
       <c r="E53" s="30">
-        <v>44502</v>
-      </c>
-      <c r="F53" s="29"/>
+        <v>44532</v>
+      </c>
+      <c r="F53" s="29">
+        <v>1</v>
+      </c>
       <c r="G53" s="32"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="33"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="42" t="s">
+    <row r="54" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="37">
+        <v>44544</v>
+      </c>
+      <c r="F54" s="36">
+        <v>4</v>
+      </c>
+      <c r="G54" s="38"/>
+    </row>
+    <row r="55" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="37">
+        <v>44545</v>
+      </c>
+      <c r="F55" s="36">
+        <v>2</v>
+      </c>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="37">
+        <v>44546</v>
+      </c>
+      <c r="F56" s="36">
+        <v>1</v>
+      </c>
+      <c r="G56" s="38"/>
+    </row>
+    <row r="57" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="37">
+        <v>44546</v>
+      </c>
+      <c r="F57" s="36">
+        <v>1</v>
+      </c>
+      <c r="G57" s="38"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="33"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="15">
-        <f>SUM(F5:F54)</f>
-        <v>98</v>
-      </c>
-      <c r="G55" s="15">
-        <f>SUM(G5:G54)</f>
+      <c r="E59" s="39"/>
+      <c r="F59" s="15">
+        <f>SUM(F5:F58)</f>
+        <v>107</v>
+      </c>
+      <c r="G59" s="15">
+        <f>SUM(G5:G58)</f>
         <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1425,14 +1498,6 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G45:G46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/olivier_deneef_student_hogent_be/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87126F04-6F18-49D8-9B8F-56491B2F837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{D9B394F9-E863-46A3-8DA8-58EA8308E449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED504A5-7C3E-4E62-9067-2BEC2EF96878}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>Ui verbeteren</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,10 +429,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -449,27 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L59"/>
+  <dimension ref="D3:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,12 +815,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -825,7 +840,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="50">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -837,7 +852,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -849,7 +864,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -861,7 +876,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -887,7 +902,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -902,39 +917,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="49"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="50">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -946,7 +961,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -980,7 +995,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="50">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -994,7 +1009,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -1016,7 +1031,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="50">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -1030,7 +1045,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1042,7 +1057,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="50">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -1054,7 +1069,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -1064,7 +1079,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>44484</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -1090,11 +1105,11 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="50">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
@@ -1104,7 +1119,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1116,7 +1131,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="52">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1128,7 +1143,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1150,7 +1165,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="52">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1162,7 +1177,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1172,7 +1187,7 @@
       <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1184,7 +1199,7 @@
       <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="52">
         <v>44499</v>
       </c>
       <c r="F35" s="21">
@@ -1196,7 +1211,7 @@
       <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="21">
         <v>2</v>
       </c>
@@ -1248,12 +1263,12 @@
         <v>44514</v>
       </c>
       <c r="F40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="55" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="24">
@@ -1262,22 +1277,22 @@
       <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="45"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="24">
         <v>44517</v>
       </c>
       <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="46"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="27">
         <v>44519</v>
       </c>
@@ -1299,7 +1314,7 @@
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="27">
@@ -1308,19 +1323,19 @@
       <c r="F45" s="26">
         <v>5</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="46"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="27">
         <v>44526</v>
       </c>
       <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="53"/>
+      <c r="G46" s="44"/>
     </row>
     <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="31" t="s">
@@ -1370,7 +1385,7 @@
         <v>44529</v>
       </c>
       <c r="F50" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="32"/>
     </row>
@@ -1430,7 +1445,7 @@
         <v>44545</v>
       </c>
       <c r="F55" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="38"/>
     </row>
@@ -1458,37 +1473,41 @@
       </c>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="33"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="39">
+        <v>44204</v>
+      </c>
+      <c r="F58" s="41">
+        <v>4</v>
+      </c>
+      <c r="G58" s="42"/>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="15">
-        <f>SUM(F5:F58)</f>
-        <v>107</v>
-      </c>
-      <c r="G59" s="15">
-        <f>SUM(G5:G58)</f>
+      <c r="E60" s="51"/>
+      <c r="F60" s="15">
+        <f>SUM(F5:F59)</f>
+        <v>117</v>
+      </c>
+      <c r="G60" s="15">
+        <f>SUM(G5:G59)</f>
         <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1498,6 +1517,14 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/olivier_deneef_student_hogent_be/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D9B394F9-E863-46A3-8DA8-58EA8308E449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED504A5-7C3E-4E62-9067-2BEC2EF96878}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932E91F-886B-45CD-9909-4470959435A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Ui verbeteren</t>
+  </si>
+  <si>
+    <t>Bug fixing + ui verbeteren</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +444,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,33 +501,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,7 +519,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L60"/>
+  <dimension ref="D3:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +830,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -840,7 +855,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -852,7 +867,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -864,7 +879,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -876,7 +891,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -902,7 +917,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="61">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -917,39 +932,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="60">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="47"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="48">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -961,7 +976,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -995,7 +1010,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="48">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -1009,7 +1024,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -1031,7 +1046,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="48">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -1045,7 +1060,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1057,7 +1072,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="48">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -1069,7 +1084,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -1079,7 +1094,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1105,7 +1120,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="48">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1119,7 +1134,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="50"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1131,7 +1146,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="49">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1143,7 +1158,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1165,7 +1180,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="49">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1177,7 +1192,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="54"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1187,7 +1202,7 @@
       <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1199,7 +1214,7 @@
       <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="49">
         <v>44499</v>
       </c>
       <c r="F35" s="21">
@@ -1211,7 +1226,7 @@
       <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="21">
         <v>2</v>
       </c>
@@ -1268,7 +1283,7 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="24">
@@ -1277,22 +1292,22 @@
       <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="56"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="24">
         <v>44517</v>
       </c>
       <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="44"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="57"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="27">
         <v>44519</v>
       </c>
@@ -1314,7 +1329,7 @@
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="52" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="27">
@@ -1323,19 +1338,19 @@
       <c r="F45" s="26">
         <v>5</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="57"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="27">
         <v>44526</v>
       </c>
       <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="44"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="31" t="s">
@@ -1478,36 +1493,80 @@
         <v>45</v>
       </c>
       <c r="E58" s="39">
-        <v>44204</v>
+        <v>44569</v>
       </c>
       <c r="F58" s="41">
         <v>4</v>
       </c>
       <c r="G58" s="42"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="33"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="51" t="s">
+    <row r="59" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="45">
+        <v>44570</v>
+      </c>
+      <c r="F59" s="44">
+        <v>4</v>
+      </c>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="45">
+        <v>44572</v>
+      </c>
+      <c r="F60" s="44">
+        <v>2</v>
+      </c>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="45">
+        <v>44573</v>
+      </c>
+      <c r="F61" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="33"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="15">
-        <f>SUM(F5:F59)</f>
-        <v>117</v>
-      </c>
-      <c r="G60" s="15">
-        <f>SUM(G5:G59)</f>
+      <c r="E63" s="47"/>
+      <c r="F63" s="15">
+        <f>SUM(F5:F62)</f>
+        <v>128.5</v>
+      </c>
+      <c r="G63" s="15">
+        <f>SUM(G5:G62)</f>
         <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1517,14 +1576,6 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
+++ b/Documentatie/Logboeken/Logboek-Olivier-De-Neef .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932E91F-886B-45CD-9909-4470959435A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898B6CF-6139-4A76-ACDB-C2A1FC9F2EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Bug fixing + ui verbeteren</t>
+  </si>
+  <si>
+    <t>Bug fixing + db data</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,10 +459,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -479,27 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D3:L63"/>
+  <dimension ref="D3:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,12 +845,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
@@ -855,7 +870,7 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="58">
         <v>44469</v>
       </c>
       <c r="F5" s="2">
@@ -867,7 +882,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
@@ -879,7 +894,7 @@
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -891,7 +906,7 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
@@ -917,7 +932,7 @@
       <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="57">
         <v>44470</v>
       </c>
       <c r="F10" s="4">
@@ -932,39 +947,39 @@
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="59"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="7">
         <v>44471</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="58">
         <v>44472</v>
       </c>
       <c r="F14" s="2">
@@ -976,7 +991,7 @@
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -1010,7 +1025,7 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="58">
         <v>44477</v>
       </c>
       <c r="F18" s="2">
@@ -1024,7 +1039,7 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -1046,7 +1061,7 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="58">
         <v>44482</v>
       </c>
       <c r="F21" s="2">
@@ -1060,7 +1075,7 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1072,7 +1087,7 @@
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="58">
         <v>44483</v>
       </c>
       <c r="F23" s="2">
@@ -1084,7 +1099,7 @@
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="2">
         <v>3</v>
       </c>
@@ -1094,7 +1109,7 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -1120,7 +1135,7 @@
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="58">
         <v>44489</v>
       </c>
       <c r="F27" s="2">
@@ -1134,7 +1149,7 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -1146,7 +1161,7 @@
       <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="60">
         <v>44490</v>
       </c>
       <c r="F29" s="14">
@@ -1158,7 +1173,7 @@
       <c r="D30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="14">
         <v>4</v>
       </c>
@@ -1180,7 +1195,7 @@
       <c r="D32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="60">
         <v>44497</v>
       </c>
       <c r="F32" s="20">
@@ -1192,7 +1207,7 @@
       <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="20">
         <v>3</v>
       </c>
@@ -1202,7 +1217,7 @@
       <c r="D34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="50"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="20">
         <v>2</v>
       </c>
@@ -1214,7 +1229,7 @@
       <c r="D35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="60">
         <v>44499</v>
       </c>
       <c r="F35" s="21">
@@ -1226,7 +1241,7 @@
       <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="21">
         <v>2</v>
       </c>
@@ -1283,7 +1298,7 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="63" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="24">
@@ -1292,22 +1307,22 @@
       <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="55">
+      <c r="G41" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="53"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="24">
         <v>44517</v>
       </c>
       <c r="F42" s="23">
         <v>3</v>
       </c>
-      <c r="G42" s="56"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="54"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="27">
         <v>44519</v>
       </c>
@@ -1329,7 +1344,7 @@
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="63" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="27">
@@ -1338,19 +1353,19 @@
       <c r="F45" s="26">
         <v>5</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="54"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="27">
         <v>44526</v>
       </c>
       <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="52"/>
     </row>
     <row r="47" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="31" t="s">
@@ -1536,37 +1551,41 @@
       </c>
       <c r="G61" s="43"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="33"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+    <row r="62" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="47">
+        <v>44574</v>
+      </c>
+      <c r="F62" s="50">
+        <v>2</v>
+      </c>
+      <c r="G62" s="49"/>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="15">
-        <f>SUM(F5:F62)</f>
-        <v>128.5</v>
-      </c>
-      <c r="G63" s="15">
-        <f>SUM(G5:G62)</f>
+      <c r="E64" s="59"/>
+      <c r="F64" s="15">
+        <f>SUM(F5:F63)</f>
+        <v>130.5</v>
+      </c>
+      <c r="G64" s="15">
+        <f>SUM(G5:G63)</f>
         <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E23:E25"/>
@@ -1576,6 +1595,14 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
